--- a/data-raw/riverview_renewal_data_2024_02_27.xlsx
+++ b/data-raw/riverview_renewal_data_2024_02_27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashorton/Dropbox/STAT325S24/git/HolyokeUrbanRenewal/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamrogers/Desktop/STAT-325/HolyokeUrbanRenewal/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE9559-B4ED-4B44-825F-54565A9E37DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D1176-ED16-284D-8FE8-25552B28FC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3825,7 +3825,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5093,7 +5093,7 @@
         <v>143</v>
       </c>
       <c r="G20" s="12">
-        <v>46009</v>
+        <v>9484</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="6" t="s">
@@ -5912,7 +5912,7 @@
         <v>218</v>
       </c>
       <c r="G33" s="18">
-        <v>46036</v>
+        <v>9511</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="6" t="s">
@@ -5975,7 +5975,7 @@
         <v>224</v>
       </c>
       <c r="G34" s="18">
-        <v>46596</v>
+        <v>10071</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="6" t="s">
@@ -7532,7 +7532,7 @@
         <v>375</v>
       </c>
       <c r="G59" s="18">
-        <v>45457</v>
+        <v>8932</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="6" t="s">
@@ -11356,7 +11356,7 @@
         <v>717</v>
       </c>
       <c r="G122" s="29">
-        <v>39991</v>
+        <v>3466</v>
       </c>
       <c r="H122" s="29">
         <v>17761</v>

--- a/data-raw/riverview_renewal_data_2024_02_27.xlsx
+++ b/data-raw/riverview_renewal_data_2024_02_27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamrogers/Desktop/STAT-325/HolyokeUrbanRenewal/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D1176-ED16-284D-8FE8-25552B28FC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{086A7D1C-7428-264F-B0F6-6111727EEEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>the middle initial was written in - need another person to check that it actually is an M
@@ -58,6 +59,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>assessed value not complete
@@ -72,6 +74,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>can't tell if that is a 13 or an 18 on the photo
@@ -3822,10 +3825,10 @@
   <dimension ref="A1:AG996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5093,7 +5096,7 @@
         <v>143</v>
       </c>
       <c r="G20" s="12">
-        <v>9484</v>
+        <v>46009</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="6" t="s">
@@ -5912,7 +5915,7 @@
         <v>218</v>
       </c>
       <c r="G33" s="18">
-        <v>9511</v>
+        <v>46036</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="6" t="s">
@@ -5975,7 +5978,7 @@
         <v>224</v>
       </c>
       <c r="G34" s="18">
-        <v>10071</v>
+        <v>46596</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="6" t="s">
@@ -7532,7 +7535,7 @@
         <v>375</v>
       </c>
       <c r="G59" s="18">
-        <v>8932</v>
+        <v>45457</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="6" t="s">
@@ -11356,7 +11359,7 @@
         <v>717</v>
       </c>
       <c r="G122" s="29">
-        <v>3466</v>
+        <v>39991</v>
       </c>
       <c r="H122" s="29">
         <v>17761</v>
